--- a/MIT-15.071x/Unit8-Linear.Optimization/AirlineRM_Connecting.xlsx
+++ b/MIT-15.071x/Unit8-Linear.Optimization/AirlineRM_Connecting.xlsx
@@ -1,15 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="현재_통합_문서" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\edx\MIT-15.071x\Unit8-Linear.Optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14020" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="15165" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1_p1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$E$5:$E$10</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1_p1!$E$5:$E$10</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$15:$B$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1_p1!$B$15:$B$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$E$5:$E$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1_p1!$E$5:$E$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$E$5:$E$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1_p1!$E$5:$E$10</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$12</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1_p1!$B$12</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$15:$D$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1_p1!$D$15:$D$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$5:$D$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1_p1!$D$5:$D$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>AIRLINE REVENUE MANAGEMENT</t>
   </si>
@@ -85,17 +165,21 @@
   </si>
   <si>
     <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,8 +187,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,14 +292,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -228,12 +313,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -559,19 +658,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -581,7 +681,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -590,7 +690,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -603,7 +703,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1">
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -618,8 +718,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -631,12 +731,14 @@
       <c r="D5" s="4">
         <v>80</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5">
+        <v>80</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -646,12 +748,14 @@
       <c r="D6" s="4">
         <v>120</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -663,12 +767,14 @@
       <c r="D7" s="4">
         <v>75</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5">
+        <v>75</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -678,12 +784,14 @@
       <c r="D8" s="4">
         <v>100</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5">
+        <v>11</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -695,12 +803,14 @@
       <c r="D9" s="4">
         <v>60</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5">
+        <v>60</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -710,11 +820,13 @@
       <c r="D10" s="4">
         <v>110</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5">
+        <v>26</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1">
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -723,18 +835,21 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="7">
+        <f>SUMPRODUCT(C5:C10,E5:E10)</f>
+        <v>120514</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -743,8 +858,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -757,59 +872,73 @@
         <v>15</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1">
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="9">
+        <f>E5+E6+E7+E8</f>
+        <v>166</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9">
+        <v>166</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" thickBot="1">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="9">
+        <f>E5+E6+E9+E10</f>
+        <v>166</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9">
+        <v>166</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" thickBot="1">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" thickBot="1">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="1"/>
@@ -822,6 +951,7 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -829,4 +959,304 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>428</v>
+      </c>
+      <c r="D5" s="4">
+        <v>80</v>
+      </c>
+      <c r="E5" s="5">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>190</v>
+      </c>
+      <c r="D6" s="4">
+        <v>120</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>642</v>
+      </c>
+      <c r="D7" s="4">
+        <v>75</v>
+      </c>
+      <c r="E7" s="5">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>224</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>512</v>
+      </c>
+      <c r="D9" s="4">
+        <v>60</v>
+      </c>
+      <c r="E9" s="5">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>190</v>
+      </c>
+      <c r="D10" s="4">
+        <v>110</v>
+      </c>
+      <c r="E10" s="5">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <f>SUMPRODUCT(C5:C10,E5:E10)</f>
+        <v>120514</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <f>E5+E6+E7+E8</f>
+        <v>166</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9">
+        <v>166</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9">
+        <f>E5+E6+E9+E10</f>
+        <v>166</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9">
+        <v>166</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>